--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.54989876559108</v>
+        <v>9.092285666666667</v>
       </c>
       <c r="H2">
-        <v>2.54989876559108</v>
+        <v>27.276857</v>
       </c>
       <c r="I2">
-        <v>0.1641831177082251</v>
+        <v>0.4104940601903898</v>
       </c>
       <c r="J2">
-        <v>0.1641831177082251</v>
+        <v>0.4104940601903898</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.79596535597621</v>
+        <v>6.273683333333334</v>
       </c>
       <c r="N2">
-        <v>1.79596535597621</v>
+        <v>18.82105</v>
       </c>
       <c r="O2">
-        <v>0.2361933583582372</v>
+        <v>0.5180127793393899</v>
       </c>
       <c r="P2">
-        <v>0.2361933583582372</v>
+        <v>0.5180127793393901</v>
       </c>
       <c r="Q2">
-        <v>4.579529844248083</v>
+        <v>57.04212104887223</v>
       </c>
       <c r="R2">
-        <v>4.579529844248083</v>
+        <v>513.37908943985</v>
       </c>
       <c r="S2">
-        <v>0.03877896195723145</v>
+        <v>0.2126411690215347</v>
       </c>
       <c r="T2">
-        <v>0.03877896195723145</v>
+        <v>0.2126411690215347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.54989876559108</v>
+        <v>9.092285666666667</v>
       </c>
       <c r="H3">
-        <v>2.54989876559108</v>
+        <v>27.276857</v>
       </c>
       <c r="I3">
-        <v>0.1641831177082251</v>
+        <v>0.4104940601903898</v>
       </c>
       <c r="J3">
-        <v>0.1641831177082251</v>
+        <v>0.4104940601903898</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.44821413761403</v>
+        <v>5.455641666666668</v>
       </c>
       <c r="N3">
-        <v>5.44821413761403</v>
+        <v>16.366925</v>
       </c>
       <c r="O3">
-        <v>0.7165127043992547</v>
+        <v>0.4504677639392779</v>
       </c>
       <c r="P3">
-        <v>0.7165127043992547</v>
+        <v>0.450467763939278</v>
       </c>
       <c r="Q3">
-        <v>13.89239450417788</v>
+        <v>49.60425252830279</v>
       </c>
       <c r="R3">
-        <v>13.89239450417788</v>
+        <v>446.4382727547251</v>
       </c>
       <c r="S3">
-        <v>0.1176392896858216</v>
+        <v>0.1849143414043203</v>
       </c>
       <c r="T3">
-        <v>0.1176392896858216</v>
+        <v>0.1849143414043203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.54989876559108</v>
+        <v>9.092285666666667</v>
       </c>
       <c r="H4">
-        <v>2.54989876559108</v>
+        <v>27.276857</v>
       </c>
       <c r="I4">
-        <v>0.1641831177082251</v>
+        <v>0.4104940601903898</v>
       </c>
       <c r="J4">
-        <v>0.1641831177082251</v>
+        <v>0.4104940601903898</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.359613299144639</v>
+        <v>0.381734</v>
       </c>
       <c r="N4">
-        <v>0.359613299144639</v>
+        <v>1.145202</v>
       </c>
       <c r="O4">
-        <v>0.04729393724250813</v>
+        <v>0.03151945672133213</v>
       </c>
       <c r="P4">
-        <v>0.04729393724250813</v>
+        <v>0.03151945672133213</v>
       </c>
       <c r="Q4">
-        <v>0.9169775075790508</v>
+        <v>3.470834576679333</v>
       </c>
       <c r="R4">
-        <v>0.9169775075790508</v>
+        <v>31.237511190114</v>
       </c>
       <c r="S4">
-        <v>0.007764866065172125</v>
+        <v>0.0129385497645349</v>
       </c>
       <c r="T4">
-        <v>0.007764866065172125</v>
+        <v>0.01293854976453489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.506162263347511</v>
+        <v>9.532627333333332</v>
       </c>
       <c r="H5">
-        <v>9.506162263347511</v>
+        <v>28.597882</v>
       </c>
       <c r="I5">
-        <v>0.6120836555936298</v>
+        <v>0.4303743900928785</v>
       </c>
       <c r="J5">
-        <v>0.6120836555936298</v>
+        <v>0.4303743900928785</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.79596535597621</v>
+        <v>6.273683333333334</v>
       </c>
       <c r="N5">
-        <v>1.79596535597621</v>
+        <v>18.82105</v>
       </c>
       <c r="O5">
-        <v>0.2361933583582372</v>
+        <v>0.5180127793393899</v>
       </c>
       <c r="P5">
-        <v>0.2361933583582372</v>
+        <v>0.5180127793393901</v>
       </c>
       <c r="Q5">
-        <v>17.07273809326053</v>
+        <v>59.80468522401111</v>
       </c>
       <c r="R5">
-        <v>17.07273809326053</v>
+        <v>538.2421670161</v>
       </c>
       <c r="S5">
-        <v>0.144570094210846</v>
+        <v>0.2229394339685068</v>
       </c>
       <c r="T5">
-        <v>0.144570094210846</v>
+        <v>0.2229394339685068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.506162263347511</v>
+        <v>9.532627333333332</v>
       </c>
       <c r="H6">
-        <v>9.506162263347511</v>
+        <v>28.597882</v>
       </c>
       <c r="I6">
-        <v>0.6120836555936298</v>
+        <v>0.4303743900928785</v>
       </c>
       <c r="J6">
-        <v>0.6120836555936298</v>
+        <v>0.4303743900928785</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.44821413761403</v>
+        <v>5.455641666666668</v>
       </c>
       <c r="N6">
-        <v>5.44821413761403</v>
+        <v>16.366925</v>
       </c>
       <c r="O6">
-        <v>0.7165127043992547</v>
+        <v>0.4504677639392779</v>
       </c>
       <c r="P6">
-        <v>0.7165127043992547</v>
+        <v>0.450467763939278</v>
       </c>
       <c r="Q6">
-        <v>51.79160763762289</v>
+        <v>52.00659887253889</v>
       </c>
       <c r="R6">
-        <v>51.79160763762289</v>
+        <v>468.05938985285</v>
       </c>
       <c r="S6">
-        <v>0.4385657153879737</v>
+        <v>0.1938697891618695</v>
       </c>
       <c r="T6">
-        <v>0.4385657153879737</v>
+        <v>0.1938697891618695</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.506162263347511</v>
+        <v>9.532627333333332</v>
       </c>
       <c r="H7">
-        <v>9.506162263347511</v>
+        <v>28.597882</v>
       </c>
       <c r="I7">
-        <v>0.6120836555936298</v>
+        <v>0.4303743900928785</v>
       </c>
       <c r="J7">
-        <v>0.6120836555936298</v>
+        <v>0.4303743900928785</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.359613299144639</v>
+        <v>0.381734</v>
       </c>
       <c r="N7">
-        <v>0.359613299144639</v>
+        <v>1.145202</v>
       </c>
       <c r="O7">
-        <v>0.04729393724250813</v>
+        <v>0.03151945672133213</v>
       </c>
       <c r="P7">
-        <v>0.04729393724250813</v>
+        <v>0.03151945672133213</v>
       </c>
       <c r="Q7">
-        <v>3.418542373726667</v>
+        <v>3.638927962462666</v>
       </c>
       <c r="R7">
-        <v>3.418542373726667</v>
+        <v>32.75035166216399</v>
       </c>
       <c r="S7">
-        <v>0.02894784599481009</v>
+        <v>0.01356516696250219</v>
       </c>
       <c r="T7">
-        <v>0.02894784599481009</v>
+        <v>0.01356516696250219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.47476090442598</v>
+        <v>3.524702666666666</v>
       </c>
       <c r="H8">
-        <v>3.47476090442598</v>
+        <v>10.574108</v>
       </c>
       <c r="I8">
-        <v>0.2237332266981451</v>
+        <v>0.1591315497167317</v>
       </c>
       <c r="J8">
-        <v>0.2237332266981451</v>
+        <v>0.1591315497167317</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.79596535597621</v>
+        <v>6.273683333333334</v>
       </c>
       <c r="N8">
-        <v>1.79596535597621</v>
+        <v>18.82105</v>
       </c>
       <c r="O8">
-        <v>0.2361933583582372</v>
+        <v>0.5180127793393899</v>
       </c>
       <c r="P8">
-        <v>0.2361933583582372</v>
+        <v>0.5180127793393901</v>
       </c>
       <c r="Q8">
-        <v>6.240550204649623</v>
+        <v>22.11286837482222</v>
       </c>
       <c r="R8">
-        <v>6.240550204649623</v>
+        <v>199.0158153734</v>
       </c>
       <c r="S8">
-        <v>0.0528443021901597</v>
+        <v>0.0824321763493485</v>
       </c>
       <c r="T8">
-        <v>0.0528443021901597</v>
+        <v>0.08243217634934852</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.47476090442598</v>
+        <v>3.524702666666666</v>
       </c>
       <c r="H9">
-        <v>3.47476090442598</v>
+        <v>10.574108</v>
       </c>
       <c r="I9">
-        <v>0.2237332266981451</v>
+        <v>0.1591315497167317</v>
       </c>
       <c r="J9">
-        <v>0.2237332266981451</v>
+        <v>0.1591315497167317</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.44821413761403</v>
+        <v>5.455641666666668</v>
       </c>
       <c r="N9">
-        <v>5.44821413761403</v>
+        <v>16.366925</v>
       </c>
       <c r="O9">
-        <v>0.7165127043992547</v>
+        <v>0.4504677639392779</v>
       </c>
       <c r="P9">
-        <v>0.7165127043992547</v>
+        <v>0.450467763939278</v>
       </c>
       <c r="Q9">
-        <v>18.93124148432214</v>
+        <v>19.22951473087778</v>
       </c>
       <c r="R9">
-        <v>18.93124148432214</v>
+        <v>173.0656325779</v>
       </c>
       <c r="S9">
-        <v>0.1603076993254595</v>
+        <v>0.07168363337308817</v>
       </c>
       <c r="T9">
-        <v>0.1603076993254595</v>
+        <v>0.07168363337308817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.47476090442598</v>
+        <v>3.524702666666666</v>
       </c>
       <c r="H10">
-        <v>3.47476090442598</v>
+        <v>10.574108</v>
       </c>
       <c r="I10">
-        <v>0.2237332266981451</v>
+        <v>0.1591315497167317</v>
       </c>
       <c r="J10">
-        <v>0.2237332266981451</v>
+        <v>0.1591315497167317</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.359613299144639</v>
+        <v>0.381734</v>
       </c>
       <c r="N10">
-        <v>0.359613299144639</v>
+        <v>1.145202</v>
       </c>
       <c r="O10">
-        <v>0.04729393724250813</v>
+        <v>0.03151945672133213</v>
       </c>
       <c r="P10">
-        <v>0.04729393724250813</v>
+        <v>0.03151945672133213</v>
       </c>
       <c r="Q10">
-        <v>1.249570232579436</v>
+        <v>1.345498847757333</v>
       </c>
       <c r="R10">
-        <v>1.249570232579436</v>
+        <v>12.109489629816</v>
       </c>
       <c r="S10">
-        <v>0.01058122518252592</v>
+        <v>0.005015739994295037</v>
       </c>
       <c r="T10">
-        <v>0.01058122518252592</v>
+        <v>0.005015739994295037</v>
       </c>
     </row>
   </sheetData>
